--- a/総合テスト/3. 注文機能/ST-O-010_結果.xlsx
+++ b/総合テスト/3. 注文機能/ST-O-010_結果.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avantg-my.sharepoint.com/personal/aoi_yaegashi_avantcorp_com/Documents/ドキュメント/研修/IT研修/システム開発模擬演習/総合テスト/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\3. 注文機能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_AD4D066CA252ABDACC10480FD913EE5A73EEDF63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAF5CE8B-4DE3-45A5-8DC7-89B728F421B6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DAC4A1-A286-42CB-8AAD-8A29A0BE2C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9160" yWindow="60" windowWidth="10040" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="実施前" sheetId="1" r:id="rId1"/>
@@ -254,6 +254,123 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12116423" cy="3854648"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C2BFB1-7628-4915-B661-C4A04E9D8C98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="31089600"/>
+          <a:ext cx="12116423" cy="3854648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11983066" cy="3264068"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BB0FAD6-11FE-4BA1-9989-C5949677F388}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="35204400"/>
+          <a:ext cx="11983066" cy="3264068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>38746</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12141824" cy="5131064"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C03749B2-F7C5-4158-9C0B-E2F37B6FDBB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1320800" y="38672146"/>
+          <a:ext cx="12141824" cy="5131064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -747,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C91"/>
   <sheetViews>
-    <sheetView topLeftCell="B83" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -769,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8591DDE-26EF-4F39-8553-CF88C39E942B}">
   <dimension ref="C3:C177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B176" sqref="B176"/>
     </sheetView>
   </sheetViews>
